--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/70_pieces_Basa Fish Finger Fry 15 GM Filet.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/70_pieces_Basa Fish Finger Fry 15 GM Filet.xlsx
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>30.85714285714286</v>
       </c>
       <c r="D2">
         <v>0.25</v>
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>46.28571428571428</v>
       </c>
       <c r="D3">
         <v>0.25</v>
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>46.28571428571428</v>
       </c>
       <c r="D4">
         <v>0.12</v>
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>22.5</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="D5">
         <v>0.15</v>
@@ -527,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>46.28571428571428</v>
       </c>
       <c r="D6">
         <v>0.15</v>
@@ -541,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>7.5</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="D7">
         <v>0.045</v>
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>15.42857142857143</v>
       </c>
       <c r="D8">
         <v>0.027</v>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>15.42857142857143</v>
       </c>
       <c r="D9">
         <v>0.75</v>
@@ -592,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>46.28571428571428</v>
       </c>
       <c r="D10">
         <v>0.21</v>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>1.542857142857143</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>46.28571428571428</v>
       </c>
       <c r="D12">
         <v>0.04615384615384616</v>
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>4.5</v>
+        <v>4.628571428571429</v>
       </c>
       <c r="D13">
         <v>2.6</v>
@@ -657,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>120</v>
+        <v>123.4285714285714</v>
       </c>
       <c r="D14">
         <v>0.1176470588235294</v>
@@ -671,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>12.34285714285714</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -685,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>750</v>
+        <v>771.4285714285714</v>
       </c>
       <c r="D16">
         <v>0.12</v>
@@ -699,7 +699,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1500</v>
+        <v>1542.857142857143</v>
       </c>
       <c r="D17">
         <v>0.28</v>
